--- a/files/2021 Charts OUT All Time.xlsx
+++ b/files/2021 Charts OUT All Time.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="169">
   <si>
     <t>Artist</t>
   </si>
@@ -36,12 +36,12 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Martin Garrix, Tove Lo</t>
+  </si>
+  <si>
     <t>Porter Robinson</t>
   </si>
   <si>
-    <t>Martin Garrix, Tove Lo</t>
-  </si>
-  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
@@ -57,12 +57,12 @@
     <t>Kirara Magic</t>
   </si>
   <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>Rosenfeld</t>
   </si>
   <si>
-    <t>Kaskade</t>
-  </si>
-  <si>
     <t>Aspyer</t>
   </si>
   <si>
@@ -99,24 +99,27 @@
     <t>The Bloody Beetroots, Teddy Killerz</t>
   </si>
   <si>
+    <t>Bleu Clair, OOTORO</t>
+  </si>
+  <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Bleu Clair, OOTORO</t>
+    <t>Dirty Palm</t>
   </si>
   <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
     <t>Lulleaux</t>
   </si>
   <si>
+    <t>Mo Falk</t>
+  </si>
+  <si>
     <t>Dr Phunk, Diandra Faye</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>Body Ocean</t>
   </si>
   <si>
-    <t>Mo Falk</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
@@ -159,12 +159,15 @@
     <t>DNVX</t>
   </si>
   <si>
+    <t>Aitor Hertz</t>
+  </si>
+  <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>Deekey</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
@@ -174,12 +177,12 @@
     <t>Jonth, Cassidy Mackenzie</t>
   </si>
   <si>
+    <t>Pressure</t>
+  </si>
+  <si>
     <t>Look At The Sky</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
     <t>Banger Machine</t>
   </si>
   <si>
@@ -192,12 +195,12 @@
     <t>Wraith</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Dangerous Woman</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
     <t>Symphony</t>
   </si>
   <si>
@@ -234,24 +237,27 @@
     <t>Elevate</t>
   </si>
   <si>
+    <t>Beat Like This</t>
+  </si>
+  <si>
     <t>Midnight</t>
   </si>
   <si>
-    <t>Beat Like This</t>
+    <t>Diamonds</t>
   </si>
   <si>
     <t>Coming Home</t>
   </si>
   <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
     <t>Even If You Don't</t>
   </si>
   <si>
+    <t>I'm Back</t>
+  </si>
+  <si>
     <t>Firebomb</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
     <t>Once The Music</t>
   </si>
   <si>
-    <t>I'm Back</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
@@ -294,12 +297,15 @@
     <t>Losing Control</t>
   </si>
   <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>Without You</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Any Other Way</t>
   </si>
   <si>
@@ -309,12 +315,12 @@
     <t>History</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
     <t>MOM+POP</t>
   </si>
   <si>
-    <t>STMPD RCRDS</t>
-  </si>
-  <si>
     <t>NCS</t>
   </si>
   <si>
@@ -327,12 +333,12 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>WLTD Entertainment LTD</t>
   </si>
   <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
     <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
@@ -417,16 +423,16 @@
     <t>The Bloody Beetroots</t>
   </si>
   <si>
+    <t>Bleu Clair</t>
+  </si>
+  <si>
+    <t>OOTORO</t>
+  </si>
+  <si>
     <t>Lucas Marx</t>
   </si>
   <si>
     <t>Matt Nash</t>
-  </si>
-  <si>
-    <t>Bleu Clair</t>
-  </si>
-  <si>
-    <t>OOTORO</t>
   </si>
   <si>
     <t>Martin Jasper</t>
@@ -880,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -905,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>1378335</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -919,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>1286202</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -936,10 +942,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -947,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>824605</v>
+        <v>833786</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -961,13 +967,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -975,13 +981,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -989,13 +995,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>261956</v>
+        <v>266952</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1003,13 +1009,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>211627</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1017,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>210865</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1031,13 +1037,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>156991</v>
+        <v>162555</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1045,13 +1051,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>121049</v>
+        <v>125005</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1059,13 +1065,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>103572</v>
+        <v>106422</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1073,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1087,13 +1093,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15">
-        <v>94727</v>
+        <v>96253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1101,13 +1107,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>93681</v>
+        <v>95925</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1115,13 +1121,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>75039</v>
+        <v>78419</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1129,13 +1135,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1143,13 +1149,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19">
-        <v>63216</v>
+        <v>68685</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1157,13 +1163,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1171,13 +1177,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21">
-        <v>61387</v>
+        <v>62878</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1185,13 +1191,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1199,13 +1205,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>41797</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1213,13 +1219,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24">
-        <v>40680</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1227,13 +1233,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>38137</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1241,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>37749</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1255,13 +1261,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>34477</v>
+        <v>35290</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1269,13 +1275,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>29497</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1283,13 +1289,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>27885</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1297,13 +1303,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D30">
-        <v>27706</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1311,13 +1317,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>27083</v>
+        <v>27832</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1325,13 +1331,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D32">
-        <v>23994</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1339,13 +1345,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33">
-        <v>20803</v>
+        <v>24646</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1353,13 +1359,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>20152</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1367,13 +1373,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1381,13 +1387,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1395,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1409,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1423,13 +1429,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1437,13 +1443,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1451,13 +1457,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1465,13 +1471,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D42">
-        <v>3796</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1479,13 +1485,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D43">
-        <v>1967</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1493,13 +1499,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1507,13 +1513,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D45">
-        <v>904</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1521,13 +1527,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>628</v>
+        <v>963</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1535,12 +1541,26 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1568,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1579,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1596,33 +1616,33 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1630,67 +1650,67 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1698,16 +1718,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1715,27 +1735,27 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -1746,104 +1766,104 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1851,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1868,10 +1888,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -1882,13 +1902,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -1902,10 +1922,10 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>11</v>
@@ -1919,10 +1939,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -1933,50 +1953,50 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -1987,10 +2007,10 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2004,10 +2024,10 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2021,10 +2041,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2038,10 +2058,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2055,10 +2075,10 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2072,10 +2092,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2086,81 +2106,81 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2171,13 +2191,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2188,13 +2208,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2205,13 +2225,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2222,13 +2242,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2239,13 +2259,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2256,13 +2276,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2273,13 +2293,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2290,13 +2310,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2307,13 +2327,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2324,13 +2344,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2341,18 +2361,35 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
     </row>
@@ -2363,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,21 +2417,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2402,41 +2439,41 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2444,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2458,27 +2495,27 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>46548</v>
+        <v>48178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>33843</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2486,27 +2523,27 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>33805</v>
+        <v>36286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>32523</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2514,13 +2551,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2528,13 +2565,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>28340</v>
+        <v>29176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2542,13 +2579,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2559,10 +2596,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2570,27 +2607,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <v>19225</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2598,13 +2635,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>14602</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2612,13 +2649,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18">
-        <v>12783</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2626,41 +2663,41 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19">
-        <v>12483</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>11377</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2668,13 +2705,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D22">
-        <v>11299</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2682,13 +2719,13 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D23">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2696,41 +2733,41 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26">
-        <v>8308</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2738,41 +2775,41 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>7738</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28">
-        <v>7669</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29">
-        <v>7601</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2780,125 +2817,125 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>6769</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>6013</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D33">
-        <v>5967</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>5913</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>4989</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D37">
-        <v>3534</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>3477</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2906,13 +2943,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2920,94 +2957,94 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>1203</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D42">
-        <v>1104</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
       </c>
       <c r="D43">
-        <v>918</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44">
-        <v>154</v>
+        <v>948</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3015,15 +3052,29 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47">
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3085,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3050,42 +3101,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B2">
-        <v>1378335</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3">
-        <v>1286202</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1286202</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3093,23 +3144,23 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>824605</v>
+        <v>833786</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3117,7 +3168,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3125,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>261956</v>
+        <v>266952</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3133,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>211627</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3141,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>210865</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3149,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>156991</v>
+        <v>162555</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3157,7 +3208,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>121049</v>
+        <v>125005</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3165,23 +3216,23 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>103572</v>
+        <v>106422</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3189,7 +3240,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94727</v>
+        <v>96253</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3197,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>93681</v>
+        <v>95925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3205,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>75039</v>
+        <v>78419</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3213,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3221,7 +3272,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>63216</v>
+        <v>68685</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3229,7 +3280,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3237,79 +3288,79 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61387</v>
+        <v>62878</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28">
-        <v>41797</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B29">
-        <v>41797</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30">
-        <v>40680</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B31">
-        <v>40680</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>38137</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33">
-        <v>38137</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B34">
-        <v>37749</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3317,7 +3368,7 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>34477</v>
+        <v>35290</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3325,63 +3376,63 @@
         <v>30</v>
       </c>
       <c r="B36">
-        <v>29497</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>27885</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38">
-        <v>27885</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B39">
-        <v>27706</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>27083</v>
+        <v>27832</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41">
-        <v>27083</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42">
-        <v>27083</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B43">
-        <v>23994</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3389,7 +3440,7 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>20803</v>
+        <v>24646</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3397,63 +3448,63 @@
         <v>36</v>
       </c>
       <c r="B45">
-        <v>20152</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B46">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B47">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B48">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B49">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B50">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B51">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B52">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3461,23 +3512,23 @@
         <v>40</v>
       </c>
       <c r="B53">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B54">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B55">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3485,7 +3536,7 @@
         <v>42</v>
       </c>
       <c r="B56">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3493,7 +3544,7 @@
         <v>43</v>
       </c>
       <c r="B57">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3501,7 +3552,7 @@
         <v>44</v>
       </c>
       <c r="B58">
-        <v>3796</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3509,62 +3560,70 @@
         <v>45</v>
       </c>
       <c r="B59">
-        <v>1967</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B60">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B61">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="B62">
-        <v>904</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B63">
-        <v>904</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="B64">
-        <v>628</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67">
         <v>0</v>
       </c>
     </row>
@@ -3575,7 +3634,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3586,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3608,21 +3667,21 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3630,65 +3689,65 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3696,10 +3755,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3707,15 +3766,15 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -3726,128 +3785,128 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>26</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>17</v>
@@ -3858,7 +3917,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -3880,7 +3939,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -3891,7 +3950,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -3902,7 +3961,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -3913,7 +3972,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -3924,7 +3983,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -3946,32 +4005,32 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
         <v>12</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4001,7 +4060,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -4012,7 +4071,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -4034,7 +4093,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -4045,7 +4104,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -4056,7 +4115,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -4067,7 +4126,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -4078,18 +4137,18 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4100,18 +4159,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4122,29 +4181,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4155,7 +4214,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4166,7 +4225,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4177,7 +4236,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4188,7 +4247,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4199,7 +4258,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4210,7 +4269,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4221,7 +4280,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4232,7 +4291,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4243,7 +4302,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4254,7 +4313,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4265,7 +4324,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4276,7 +4335,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4287,7 +4346,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4298,12 +4357,23 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
@@ -4314,7 +4384,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4325,71 +4395,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B5">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4397,39 +4467,39 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>46548</v>
+        <v>48178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>33843</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B12">
-        <v>33805</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>32523</v>
+        <v>36286</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>32523</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4437,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4445,39 +4515,39 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>28340</v>
+        <v>29176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B20">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4485,15 +4555,15 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>19225</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4501,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>14602</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4509,7 +4579,7 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>12783</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4517,31 +4587,31 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>12483</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B27">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>11377</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4549,23 +4619,23 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11299</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B30">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B31">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4573,23 +4643,23 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>8308</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4597,244 +4667,244 @@
         <v>15</v>
       </c>
       <c r="B35">
-        <v>7738</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>7669</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B37">
-        <v>7669</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B38">
-        <v>7601</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B39">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B40">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>6769</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="B42">
-        <v>6013</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B43">
-        <v>5967</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B44">
-        <v>5967</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B45">
-        <v>5913</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>5913</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B47">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B48">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B49">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>4989</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B51">
-        <v>3534</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>3477</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B53">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B54">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B55">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B56">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B57">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>1203</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B59">
-        <v>1104</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60">
-        <v>1104</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B61">
-        <v>918</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B62">
-        <v>154</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B63">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4842,9 +4912,17 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>0</v>
       </c>
     </row>
@@ -4874,188 +4952,188 @@
         <v>97</v>
       </c>
       <c r="B2">
-        <v>1877172</v>
+        <v>2151524</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>1741473</v>
+        <v>1898546</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>615483</v>
+        <v>648219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>215404</v>
+        <v>230412</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9">
-        <v>211627</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10">
-        <v>131278</v>
+        <v>134254</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>80651</v>
+        <v>82550</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14">
-        <v>38765</v>
+        <v>39550</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B15">
-        <v>9400</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16">
-        <v>8718</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B17">
-        <v>8195</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B19">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B20">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23">
-        <v>904</v>
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B24">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5063,7 +5141,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5087,70 +5165,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C2">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -5161,7 +5239,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -5172,18 +5250,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -5194,7 +5272,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -5205,29 +5283,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -5238,7 +5316,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5249,7 +5327,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -5260,7 +5338,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -5271,7 +5349,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5282,7 +5360,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5293,7 +5371,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5304,7 +5382,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5315,7 +5393,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5326,7 +5404,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5337,7 +5415,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5348,7 +5426,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5359,7 +5437,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5386,207 +5464,207 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2">
-        <v>270043</v>
+        <v>282532</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
-        <v>148461</v>
+        <v>167432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5">
-        <v>53299</v>
+        <v>54785</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>49666</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>49566</v>
+        <v>51005</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>28393</v>
+        <v>29239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11">
-        <v>14507</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14">
-        <v>11203</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17">
-        <v>7601</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18">
-        <v>7601</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B19">
-        <v>6093</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20">
-        <v>6013</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B21">
-        <v>3534</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B22">
-        <v>3301</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B23">
-        <v>2924</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>2121</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B25">
-        <v>918</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B26">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/files/2021 Charts OUT All Time.xlsx
+++ b/files/2021 Charts OUT All Time.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="253">
   <si>
     <t>Artist</t>
   </si>
@@ -42,22 +42,37 @@
     <t>Porter Robinson</t>
   </si>
   <si>
+    <t>Armin van Buuren</t>
+  </si>
+  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
     <t>Castion</t>
   </si>
   <si>
+    <t>Tom Wilson, M.I.M.E</t>
+  </si>
+  <si>
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
-    <t>Armin van Buuren</t>
+    <t>hayve</t>
+  </si>
+  <si>
+    <t>Don Diablo</t>
+  </si>
+  <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
+    <t>KEVU</t>
   </si>
   <si>
     <t>Kirara Magic</t>
   </si>
   <si>
-    <t>Kaskade</t>
+    <t>Maggie Lindemann</t>
   </si>
   <si>
     <t>Rosenfeld</t>
@@ -72,40 +87,64 @@
     <t>WbToys</t>
   </si>
   <si>
+    <t>Daft Punk, RetroVision</t>
+  </si>
+  <si>
+    <t>Julian Jordan</t>
+  </si>
+  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
+    <t>Feint</t>
+  </si>
+  <si>
     <t>Camellia</t>
   </si>
   <si>
-    <t>Julian Jordan</t>
-  </si>
-  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Bleu Clair, OOTORO</t>
+  </si>
+  <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
+    <t>Bad Computer</t>
+  </si>
+  <si>
+    <t>The Bloody Beetroots, Teddy Killerz</t>
+  </si>
+  <si>
+    <t>Seth Hills, Vluarr, Lucas Ariel</t>
+  </si>
+  <si>
+    <t>DubVision</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
-    <t>Feint</t>
-  </si>
-  <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
-    <t>DubVision</t>
-  </si>
-  <si>
-    <t>The Bloody Beetroots, Teddy Killerz</t>
-  </si>
-  <si>
-    <t>Bleu Clair, OOTORO</t>
+    <t>KAAZE, Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
+  </si>
+  <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
+    <t>Centineo, Niles Mason</t>
   </si>
   <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
+    <t>Koven</t>
+  </si>
+  <si>
+    <t>Ellis</t>
   </si>
   <si>
     <t>Polygon, Martin Jasper</t>
@@ -114,6 +153,9 @@
     <t>Malarkey</t>
   </si>
   <si>
+    <t>Chime, Franky Nuts, Oliverse</t>
+  </si>
+  <si>
     <t>Lulleaux</t>
   </si>
   <si>
@@ -123,24 +165,39 @@
     <t>Dr Phunk, Diandra Faye</t>
   </si>
   <si>
+    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
+  </si>
+  <si>
+    <t>RetroVision</t>
+  </si>
+  <si>
+    <t>NUZB</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
-  </si>
-  <si>
-    <t>NUZB</t>
-  </si>
-  <si>
     <t>Body Ocean</t>
   </si>
   <si>
+    <t>THYKIER</t>
+  </si>
+  <si>
+    <t>SWACQ</t>
+  </si>
+  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
+    <t>Sagan, Heyem &amp; Groozin</t>
+  </si>
+  <si>
     <t>Julian Calor, Aiobahn</t>
   </si>
   <si>
+    <t>KAAZE</t>
+  </si>
+  <si>
     <t>MR.BLACK, Offer Nissim, Chester Young</t>
   </si>
   <si>
@@ -150,19 +207,28 @@
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
+    <t>D3EPANK</t>
+  </si>
+  <si>
     <t>Slippy</t>
   </si>
   <si>
-    <t>D3EPANK</t>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
+    <t>Dossa &amp; Locuzzed, Anastasia</t>
   </si>
   <si>
     <t>DNVX</t>
   </si>
   <si>
+    <t>FEIVER</t>
+  </si>
+  <si>
     <t>Aitor Hertz</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
+    <t>Showmain, 7en</t>
   </si>
   <si>
     <t>Deekey</t>
@@ -171,9 +237,15 @@
     <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Rezilient</t>
   </si>
   <si>
+    <t>Nokturn</t>
+  </si>
+  <si>
     <t>Jonth, Cassidy Mackenzie</t>
   </si>
   <si>
@@ -183,19 +255,34 @@
     <t>Look At The Sky</t>
   </si>
   <si>
+    <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
+  </si>
+  <si>
     <t>Banger Machine</t>
   </si>
   <si>
+    <t>Run For Your Life</t>
+  </si>
+  <si>
     <t>Channel 43</t>
   </si>
   <si>
-    <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
+    <t>Red Light</t>
+  </si>
+  <si>
+    <t>Into The Unknown</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Melody</t>
   </si>
   <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Closer</t>
+    <t>Crash And Burn</t>
   </si>
   <si>
     <t>Dangerous Woman</t>
@@ -210,40 +297,70 @@
     <t>Let Me Love You</t>
   </si>
   <si>
+    <t>Harder, Better, Faster, Stronger (RetroVision Remix)</t>
+  </si>
+  <si>
+    <t>Big Bad Bass</t>
+  </si>
+  <si>
     <t>Stay</t>
   </si>
   <si>
+    <t>Do Better</t>
+  </si>
+  <si>
     <t>PURE SILVER</t>
   </si>
   <si>
-    <t>Big Bad Bass</t>
-  </si>
-  <si>
     <t>Bonetrousle</t>
   </si>
   <si>
+    <t>Beat Like This</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Destroy Me</t>
+  </si>
+  <si>
+    <t>Kass' Theme - Jazz Accordion Arrangement</t>
+  </si>
+  <si>
+    <t>Elevate</t>
+  </si>
+  <si>
+    <t>Calling Out</t>
+  </si>
+  <si>
+    <t>Deeper</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
-    <t>Do Better</t>
-  </si>
-  <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t>Deeper</t>
-  </si>
-  <si>
-    <t>Elevate</t>
-  </si>
-  <si>
-    <t>Beat Like This</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Don't Leave Me Now (Brooks Remix)</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Fearless</t>
   </si>
   <si>
     <t>Midnight</t>
   </si>
   <si>
-    <t>Diamonds</t>
+    <t>Light Up</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Golden Battle</t>
   </si>
   <si>
     <t>Coming Home</t>
@@ -252,6 +369,9 @@
     <t>Shackles (Praise You)</t>
   </si>
   <si>
+    <t>Let Me Go</t>
+  </si>
+  <si>
     <t>Even If You Don't</t>
   </si>
   <si>
@@ -261,24 +381,45 @@
     <t>Firebomb</t>
   </si>
   <si>
+    <t>Bootshaus ID</t>
+  </si>
+  <si>
+    <t>All About U</t>
+  </si>
+  <si>
+    <t>Nighttime</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Bootshaus ID</t>
-  </si>
-  <si>
-    <t>Nighttime</t>
-  </si>
-  <si>
     <t>Once The Music</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Purification</t>
+  </si>
+  <si>
     <t>Legacy</t>
   </si>
   <si>
+    <t>Wanna Love</t>
+  </si>
+  <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
     <t>Moving Foward (Aiobahn Remix)</t>
   </si>
   <si>
+    <t>Midnight Runners</t>
+  </si>
+  <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
     <t>Mucho Bien (Chester Young Remix)</t>
   </si>
   <si>
@@ -288,19 +429,28 @@
     <t>So Sexy</t>
   </si>
   <si>
+    <t>Eternally</t>
+  </si>
+  <si>
     <t>Free</t>
   </si>
   <si>
-    <t>Eternally</t>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
+    <t>Right Way</t>
   </si>
   <si>
     <t>Losing Control</t>
   </si>
   <si>
+    <t>Hold On Me</t>
+  </si>
+  <si>
     <t>Dance</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
+    <t>Chasing The Sun</t>
   </si>
   <si>
     <t>Without You</t>
@@ -309,9 +459,15 @@
     <t>Any Other Way</t>
   </si>
   <si>
+    <t>Falling</t>
+  </si>
+  <si>
     <t>Positive Reaction</t>
   </si>
   <si>
+    <t>Stargazing</t>
+  </si>
+  <si>
     <t>History</t>
   </si>
   <si>
@@ -321,184 +477,271 @@
     <t>MOM+POP</t>
   </si>
   <si>
+    <t>A State Of Trance, Armada Music</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
     <t>mau5trap</t>
   </si>
   <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>swixxzaudio</t>
+  </si>
+  <si>
+    <t>WLTD Entertainment LTD</t>
+  </si>
+  <si>
+    <t>HEXAGON, GenerationHEX</t>
+  </si>
+  <si>
+    <t>BreadnButter, Trap City</t>
+  </si>
+  <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
+    <t>Found Frequencies, Armada Music</t>
+  </si>
+  <si>
+    <t>Liquicity</t>
+  </si>
+  <si>
+    <t>Disciple</t>
+  </si>
+  <si>
+    <t>Tribal Trap</t>
+  </si>
+  <si>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
+    <t>Future House Cloud, FHC Selection</t>
+  </si>
+  <si>
+    <t>Dim Mak, Dim Mak New Noise</t>
+  </si>
+  <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
+    <t>Viper Recordings</t>
+  </si>
+  <si>
+    <t>Future House Cloud</t>
+  </si>
+  <si>
+    <t>Lost World</t>
+  </si>
+  <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
+    <t>Galacy, Liquicity</t>
+  </si>
+  <si>
+    <t>Discover Records, JompaMusic</t>
+  </si>
+  <si>
+    <t>1001T_Supports</t>
+  </si>
+  <si>
+    <t>1001T_TotPlays</t>
+  </si>
+  <si>
+    <t>Soundcloud_Plays</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Tove Lo</t>
+  </si>
+  <si>
+    <t>Arlow</t>
+  </si>
+  <si>
+    <t>Shiah Maisel</t>
+  </si>
+  <si>
+    <t>M.I.M.E</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Wolfgang Gartner</t>
+  </si>
+  <si>
+    <t>deadmau5</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Ace Aura</t>
+  </si>
+  <si>
+    <t>TYNAN</t>
+  </si>
+  <si>
+    <t>Bleu Clair</t>
+  </si>
+  <si>
+    <t>OOTORO</t>
+  </si>
+  <si>
+    <t>Teddy Killerz</t>
+  </si>
+  <si>
+    <t>The Bloody Beetroots</t>
+  </si>
+  <si>
+    <t>Lucas Ariel</t>
+  </si>
+  <si>
+    <t>Seth Hills</t>
+  </si>
+  <si>
+    <t>Vluarr</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Franky Nuts</t>
+  </si>
+  <si>
+    <t>Oliverse</t>
+  </si>
+  <si>
+    <t>Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Lost Frequencies</t>
+  </si>
+  <si>
+    <t>Mathieu Koss</t>
+  </si>
+  <si>
+    <t>Centineo</t>
+  </si>
+  <si>
+    <t>Niles Mason</t>
+  </si>
+  <si>
+    <t>Lucas Marx</t>
+  </si>
+  <si>
+    <t>Matt Nash</t>
+  </si>
+  <si>
+    <t>Martin Jasper</t>
+  </si>
+  <si>
+    <t>Diandra Faye</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
+    <t>Blasterjaxx</t>
+  </si>
+  <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
+    <t>Jaxxwell</t>
+  </si>
+  <si>
+    <t>REGGIO</t>
+  </si>
+  <si>
+    <t>Rave Republic</t>
+  </si>
+  <si>
+    <t>Heyem &amp; Groozin</t>
+  </si>
+  <si>
+    <t>Sagan</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Julian Calor</t>
+  </si>
+  <si>
+    <t>Chester Young</t>
+  </si>
+  <si>
+    <t>MR.BLACK</t>
+  </si>
+  <si>
+    <t>Offer Nissim</t>
+  </si>
+  <si>
+    <t>DJ St3v3</t>
+  </si>
+  <si>
+    <t>Sebastian Mateo</t>
+  </si>
+  <si>
+    <t>Dame1</t>
+  </si>
+  <si>
+    <t>Lady Bee</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Dossa &amp; Locuzzed</t>
+  </si>
+  <si>
+    <t>7en</t>
+  </si>
+  <si>
+    <t>Showmain</t>
+  </si>
+  <si>
+    <t>Anna Vellington</t>
+  </si>
+  <si>
+    <t>Lost Identities</t>
+  </si>
+  <si>
+    <t>Cassidy Mackenzie</t>
+  </si>
+  <si>
+    <t>Jonth</t>
+  </si>
+  <si>
+    <t>Armada Music</t>
+  </si>
+  <si>
     <t>A State Of Trance</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
-    <t>WLTD Entertainment LTD</t>
-  </si>
-  <si>
-    <t>HEXAGON, GenerationHEX</t>
-  </si>
-  <si>
-    <t>BreadnButter, Trap City</t>
-  </si>
-  <si>
-    <t>Liquicity</t>
-  </si>
-  <si>
-    <t>HEXAGON</t>
-  </si>
-  <si>
-    <t>Revealed Recordings</t>
-  </si>
-  <si>
-    <t>Revealed Recordins</t>
-  </si>
-  <si>
-    <t>Tribal Trap</t>
-  </si>
-  <si>
-    <t>Revealed Recordings, Revealed Radar</t>
-  </si>
-  <si>
-    <t>Dim Mak, Dim Mak New Noise</t>
-  </si>
-  <si>
-    <t>Future House Cloud, FHC Selection</t>
-  </si>
-  <si>
-    <t>Future House Cloud</t>
-  </si>
-  <si>
-    <t>Mixmash Recorsds</t>
-  </si>
-  <si>
-    <t>Lost World</t>
-  </si>
-  <si>
-    <t>Galacy, Liquicity</t>
-  </si>
-  <si>
-    <t>Discover Records, JompaMusic</t>
-  </si>
-  <si>
-    <t>1001T_Supports</t>
-  </si>
-  <si>
-    <t>1001T_TotPlays</t>
-  </si>
-  <si>
-    <t>Soundcloud_Plays</t>
-  </si>
-  <si>
-    <t>Martin Garrix</t>
-  </si>
-  <si>
-    <t>Tove Lo</t>
-  </si>
-  <si>
-    <t>Arlow</t>
-  </si>
-  <si>
-    <t>Shiah Maisel</t>
-  </si>
-  <si>
-    <t>Wolfgang Gartner</t>
-  </si>
-  <si>
-    <t>deadmau5</t>
-  </si>
-  <si>
-    <t>Ace Aura</t>
-  </si>
-  <si>
-    <t>TYNAN</t>
-  </si>
-  <si>
-    <t>Teddy Killerz</t>
-  </si>
-  <si>
-    <t>The Bloody Beetroots</t>
-  </si>
-  <si>
-    <t>Bleu Clair</t>
-  </si>
-  <si>
-    <t>OOTORO</t>
-  </si>
-  <si>
-    <t>Lucas Marx</t>
-  </si>
-  <si>
-    <t>Matt Nash</t>
-  </si>
-  <si>
-    <t>Martin Jasper</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Diandra Faye</t>
-  </si>
-  <si>
-    <t>Dr Phunk</t>
-  </si>
-  <si>
-    <t>Blasterjaxx</t>
-  </si>
-  <si>
-    <t>Hardwell</t>
-  </si>
-  <si>
-    <t>Jaxxwell</t>
-  </si>
-  <si>
-    <t>REGGIO</t>
-  </si>
-  <si>
-    <t>Rave Republic</t>
-  </si>
-  <si>
-    <t>Aiobahn</t>
-  </si>
-  <si>
-    <t>Julian Calor</t>
-  </si>
-  <si>
-    <t>Chester Young</t>
-  </si>
-  <si>
-    <t>MR.BLACK</t>
-  </si>
-  <si>
-    <t>Offer Nissim</t>
-  </si>
-  <si>
-    <t>DJ St3v3</t>
-  </si>
-  <si>
-    <t>Sebastian Mateo</t>
-  </si>
-  <si>
-    <t>Dame1</t>
-  </si>
-  <si>
-    <t>Lady Bee</t>
-  </si>
-  <si>
-    <t>Anna Vellington</t>
-  </si>
-  <si>
-    <t>Lost Identities</t>
-  </si>
-  <si>
-    <t>Cassidy Mackenzie</t>
-  </si>
-  <si>
-    <t>Jonth</t>
+    <t>Maxximize Records</t>
+  </si>
+  <si>
+    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>GenerationHEX</t>
@@ -510,6 +753,12 @@
     <t>Trap City</t>
   </si>
   <si>
+    <t>Found Frequencies</t>
+  </si>
+  <si>
+    <t>FHC Selection</t>
+  </si>
+  <si>
     <t>Revealed Radar</t>
   </si>
   <si>
@@ -519,7 +768,10 @@
     <t>Dim Mak New Noise</t>
   </si>
   <si>
-    <t>FHC Selection</t>
+    <t>Elevate Records</t>
+  </si>
+  <si>
+    <t>SHOGUN</t>
   </si>
   <si>
     <t>Galacy</t>
@@ -886,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -925,41 +1177,41 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>1493451</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D4">
-        <v>1064760</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
+      <c r="B5">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>833786</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -967,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>738024</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -981,13 +1233,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>677931</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D8">
-        <v>266952</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1009,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>225541</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>216147</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1037,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D11">
-        <v>162555</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1051,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D12">
-        <v>125005</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1065,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D13">
-        <v>106422</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1079,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D14">
-        <v>101730</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1093,13 +1345,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D15">
-        <v>96253</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1107,13 +1359,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>95925</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1121,13 +1373,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>78419</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1135,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D18">
-        <v>68825</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1149,13 +1401,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D19">
-        <v>68685</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1163,13 +1415,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>66816</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1177,13 +1429,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>62878</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1191,13 +1443,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>60442</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1205,13 +1457,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D23">
-        <v>46129</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1219,13 +1471,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D24">
-        <v>44060</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1233,13 +1485,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D25">
-        <v>39718</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1247,13 +1499,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="D26">
-        <v>38888</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1261,306 +1513,698 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>35290</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D28">
-        <v>31223</v>
+        <v>91603</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D29">
-        <v>29645</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D30">
-        <v>28798</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D31">
-        <v>27832</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D32">
-        <v>27541</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="D33">
-        <v>24646</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D34">
-        <v>21592</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D35">
-        <v>17854</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D36">
-        <v>16086</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D37">
-        <v>9562</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>7471</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D39">
-        <v>6351</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>5288</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D41">
-        <v>5038</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D42">
-        <v>3810</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D43">
-        <v>3446</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D44">
-        <v>2112</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D45">
-        <v>2006</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D46">
-        <v>963</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D47">
-        <v>662</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48">
+        <v>30491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49">
+        <v>30074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48">
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>29107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51">
+        <v>28682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>22053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54">
+        <v>21522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>20748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57">
+        <v>17297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58">
+        <v>13010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <v>11354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76">
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1588,112 +2232,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="E3">
         <v>97</v>
-      </c>
-      <c r="D3">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1701,695 +2345,1171 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
       <c r="E14">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +3520,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2417,357 +3537,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>83760</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>80614</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>71763</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>53845</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>52111</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>48178</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>36527</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D9">
-        <v>36286</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>35965</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="D11">
-        <v>29842</v>
+        <v>51946</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D12">
-        <v>29176</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>27644</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D14">
-        <v>25609</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D15">
-        <v>19831</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D16">
-        <v>15450</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D17">
-        <v>15133</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>13225</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D19">
-        <v>12761</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>11979</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>11699</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>11663</v>
+        <v>26999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D23">
-        <v>11646</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D24">
-        <v>10231</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D25">
-        <v>9787</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>8801</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2775,139 +3895,139 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>7922</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D28">
-        <v>7896</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D29">
-        <v>7849</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="D30">
-        <v>7169</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="D31">
-        <v>6960</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>6393</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>6129</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D34">
-        <v>6070</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>5226</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>5113</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2915,166 +4035,558 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>3723</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>3697</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D39">
-        <v>3376</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D40">
-        <v>3201</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D41">
-        <v>1696</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="D42">
-        <v>1217</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D43">
-        <v>1125</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D44">
-        <v>948</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D45">
-        <v>168</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48">
+        <v>7591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
         <v>0</v>
       </c>
     </row>
@@ -3085,7 +4597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3101,18 +4613,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="B3">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3120,119 +4632,119 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1493451</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1064760</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B6">
-        <v>1064760</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="B7">
-        <v>833786</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>738024</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B9">
-        <v>738024</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="B10">
-        <v>677931</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B11">
-        <v>266952</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="B12">
-        <v>225541</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>216147</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>162555</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>125005</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>106422</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101730</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>101730</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3240,390 +4752,662 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96253</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>95925</v>
+        <v>252442</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>78419</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>68825</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>68685</v>
+        <v>164018</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>66816</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="B25">
-        <v>62878</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>60442</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B27">
-        <v>60442</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="B28">
-        <v>46129</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>46129</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>44060</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B31">
-        <v>44060</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="B32">
-        <v>39718</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>38888</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>38888</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="B35">
-        <v>35290</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="B36">
-        <v>31223</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="B37">
-        <v>29645</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="B38">
-        <v>28798</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="B39">
-        <v>28798</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>27832</v>
+        <v>81426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>27541</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>27541</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="B43">
-        <v>27541</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B44">
-        <v>24646</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="B45">
-        <v>21592</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B46">
-        <v>17854</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B47">
-        <v>17854</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B48">
-        <v>16086</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B49">
-        <v>16086</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>9562</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="B51">
-        <v>9562</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="B52">
-        <v>9562</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="B53">
-        <v>7471</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B54">
-        <v>6351</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>6351</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56">
-        <v>5288</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>5038</v>
+        <v>51419</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="B58">
-        <v>3810</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>3446</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B60">
-        <v>2112</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B61">
-        <v>2112</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B62">
-        <v>2006</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B63">
-        <v>963</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="B64">
-        <v>963</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="B65">
-        <v>662</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="B67">
+        <v>30074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>29107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69">
+        <v>28682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>22053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72">
+        <v>21522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73">
+        <v>21522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76">
+        <v>17297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77">
+        <v>17297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101">
         <v>0</v>
       </c>
     </row>
@@ -3634,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3645,735 +5429,1109 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>10</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +6542,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4395,359 +6553,359 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>83760</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B3">
-        <v>80614</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>80614</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B5">
-        <v>71763</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="B6">
-        <v>71763</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B7">
-        <v>53845</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="B8">
-        <v>52111</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <v>52111</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="B10">
-        <v>48178</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B11">
-        <v>36527</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>36527</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="B13">
-        <v>36286</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="B14">
-        <v>35965</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>29842</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>29176</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>27644</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>27644</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="B19">
-        <v>25609</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B20">
-        <v>25609</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>19831</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="B22">
-        <v>15450</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="B23">
-        <v>15133</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>13225</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="B25">
-        <v>12761</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B26">
-        <v>11979</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>11979</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>11699</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>11663</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B30">
-        <v>11646</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B31">
-        <v>11646</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="B32">
-        <v>10231</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>9787</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>8801</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>7922</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>7896</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>7849</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>7849</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="B39">
-        <v>7169</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="B40">
-        <v>7169</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>6960</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>6393</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>6393</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="B44">
-        <v>6129</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="B45">
-        <v>6129</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4755,174 +6913,446 @@
         <v>40</v>
       </c>
       <c r="B46">
-        <v>6070</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>5226</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>5226</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="B49">
-        <v>5226</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>5113</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="B51">
-        <v>3723</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="B52">
-        <v>3697</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>3376</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B54">
-        <v>3376</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>3376</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="B56">
-        <v>3201</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>3201</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>1696</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="B59">
-        <v>1217</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="B60">
-        <v>1125</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B61">
-        <v>1125</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="B62">
-        <v>948</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B63">
-        <v>168</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>168</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="B67">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101">
         <v>0</v>
       </c>
     </row>
@@ -4933,7 +7363,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4949,146 +7379,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>2151524</v>
+        <v>6196972</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B3">
-        <v>1898546</v>
+        <v>3804650</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>1493451</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B5">
-        <v>738024</v>
+        <v>1281054</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B6">
-        <v>677931</v>
+        <v>1228989</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B7">
-        <v>648219</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B8">
-        <v>230412</v>
+        <v>1049403</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B9">
-        <v>216147</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="B10">
-        <v>134254</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="B11">
-        <v>82550</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12">
-        <v>68825</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13">
-        <v>68825</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B14">
-        <v>39550</v>
+        <v>195441</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="B15">
-        <v>12294</v>
+        <v>169834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="B16">
-        <v>9562</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="B17">
-        <v>8357</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="B18">
-        <v>7471</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="B19">
-        <v>5288</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5096,31 +7526,31 @@
         <v>164</v>
       </c>
       <c r="B20">
-        <v>5288</v>
+        <v>50732</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B21">
-        <v>5038</v>
+        <v>22201</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="B22">
-        <v>2112</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="B23">
-        <v>963</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5128,22 +7558,86 @@
         <v>166</v>
       </c>
       <c r="B24">
-        <v>662</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="B26">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
@@ -5154,7 +7648,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5165,284 +7659,372 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>360</v>
+        <v>563</v>
       </c>
       <c r="C2">
-        <v>398</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0</v>
       </c>
     </row>
@@ -5453,7 +8035,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5464,207 +8046,271 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B2">
-        <v>282532</v>
+        <v>463464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B3">
-        <v>167432</v>
+        <v>406018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B4">
-        <v>83760</v>
+        <v>157565</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B5">
-        <v>54785</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>52111</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B7">
-        <v>51005</v>
+        <v>103145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B8">
-        <v>29842</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B9">
-        <v>29239</v>
+        <v>58368</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="B10">
-        <v>15450</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B11">
-        <v>14882</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B12">
-        <v>11979</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B13">
-        <v>11979</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="B14">
-        <v>11546</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="B15">
-        <v>10231</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="B16">
-        <v>10231</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="B17">
-        <v>7896</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="B18">
-        <v>7896</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19">
-        <v>6238</v>
+        <v>15268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="B20">
-        <v>6070</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="B21">
-        <v>3861</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="B22">
-        <v>3697</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="B23">
-        <v>3376</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="B24">
-        <v>3201</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B25">
-        <v>948</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="B26">
-        <v>168</v>
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/2021 Charts OUT All Time.xlsx
+++ b/files/2021 Charts OUT All Time.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="267">
   <si>
     <t>Artist</t>
   </si>
@@ -54,21 +54,21 @@
     <t>Tom Wilson, M.I.M.E</t>
   </si>
   <si>
+    <t>hayve</t>
+  </si>
+  <si>
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
-    <t>hayve</t>
-  </si>
-  <si>
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Kaskade</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
@@ -84,54 +84,63 @@
     <t>Saint Punk</t>
   </si>
   <si>
+    <t>Blasterjaxx, Dr Phunk</t>
+  </si>
+  <si>
     <t>WbToys</t>
   </si>
   <si>
     <t>Daft Punk, RetroVision</t>
   </si>
   <si>
+    <t>Feint</t>
+  </si>
+  <si>
     <t>Julian Jordan</t>
   </si>
   <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
-    <t>Feint</t>
-  </si>
-  <si>
     <t>Camellia</t>
   </si>
   <si>
+    <t>Bad Computer</t>
+  </si>
+  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
     <t>Bleu Clair, OOTORO</t>
   </si>
   <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
-    <t>Bad Computer</t>
-  </si>
-  <si>
     <t>The Bloody Beetroots, Teddy Killerz</t>
   </si>
   <si>
     <t>Seth Hills, Vluarr, Lucas Ariel</t>
   </si>
   <si>
+    <t>Koven</t>
+  </si>
+  <si>
     <t>DubVision</t>
   </si>
   <si>
     <t>Misfit</t>
   </si>
   <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
+  </si>
+  <si>
     <t>KAAZE, Nino Lucarelli</t>
   </si>
   <si>
-    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
-  </si>
-  <si>
     <t>Dirty Palm</t>
   </si>
   <si>
@@ -141,18 +150,15 @@
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Koven</t>
-  </si>
-  <si>
-    <t>Ellis</t>
+    <t>Malarkey</t>
+  </si>
+  <si>
+    <t>Masayoshi Iimori</t>
   </si>
   <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
     <t>Chime, Franky Nuts, Oliverse</t>
   </si>
   <si>
@@ -174,30 +180,30 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>Body Ocean</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>Body Ocean</t>
+    <t>SWACQ</t>
   </si>
   <si>
     <t>THYKIER</t>
   </si>
   <si>
-    <t>SWACQ</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
+    <t>KAAZE</t>
+  </si>
+  <si>
     <t>Sagan, Heyem &amp; Groozin</t>
   </si>
   <si>
     <t>Julian Calor, Aiobahn</t>
   </si>
   <si>
-    <t>KAAZE</t>
-  </si>
-  <si>
     <t>MR.BLACK, Offer Nissim, Chester Young</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
+    <t>Trilane, Charlie Ray, Jordan Grace</t>
+  </si>
+  <si>
     <t>D3EPANK</t>
   </si>
   <si>
@@ -231,15 +240,18 @@
     <t>Showmain, 7en</t>
   </si>
   <si>
+    <t>Kamix, WYKO, PJONAX</t>
+  </si>
+  <si>
     <t>Deekey</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>Rezilient</t>
   </si>
   <si>
@@ -264,21 +276,21 @@
     <t>Run For Your Life</t>
   </si>
   <si>
+    <t>Red Light</t>
+  </si>
+  <si>
     <t>Channel 43</t>
   </si>
   <si>
-    <t>Red Light</t>
-  </si>
-  <si>
     <t>Into The Unknown</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Closer</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Wraith</t>
   </si>
   <si>
@@ -294,36 +306,39 @@
     <t>Empty Bed</t>
   </si>
   <si>
+    <t>Here Without You</t>
+  </si>
+  <si>
     <t>Let Me Love You</t>
   </si>
   <si>
     <t>Harder, Better, Faster, Stronger (RetroVision Remix)</t>
   </si>
   <si>
+    <t>Do Better</t>
+  </si>
+  <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
     <t>Stay</t>
   </si>
   <si>
-    <t>Do Better</t>
-  </si>
-  <si>
     <t>PURE SILVER</t>
   </si>
   <si>
+    <t>Destroy Me</t>
+  </si>
+  <si>
     <t>Bonetrousle</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
     <t>Beat Like This</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t>Destroy Me</t>
-  </si>
-  <si>
     <t>Kass' Theme - Jazz Accordion Arrangement</t>
   </si>
   <si>
@@ -333,18 +348,24 @@
     <t>Calling Out</t>
   </si>
   <si>
+    <t>Light Up</t>
+  </si>
+  <si>
     <t>Deeper</t>
   </si>
   <si>
     <t>Mirage</t>
   </si>
   <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Don't Leave Me Now (Brooks Remix)</t>
+  </si>
+  <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t>Don't Leave Me Now (Brooks Remix)</t>
-  </si>
-  <si>
     <t>Diamonds</t>
   </si>
   <si>
@@ -354,21 +375,18 @@
     <t>Midnight</t>
   </si>
   <si>
-    <t>Light Up</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
     <t>Golden Battle</t>
   </si>
   <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
+    <t>In My Soul</t>
+  </si>
+  <si>
     <t>Coming Home</t>
   </si>
   <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
     <t>Let Me Go</t>
   </si>
   <si>
@@ -390,33 +408,33 @@
     <t>Nighttime</t>
   </si>
   <si>
+    <t>Once The Music</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Once The Music</t>
+    <t>Purification</t>
   </si>
   <si>
     <t>Miss</t>
   </si>
   <si>
-    <t>Purification</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
     <t>Wanna Love</t>
   </si>
   <si>
+    <t>Midnight Runners</t>
+  </si>
+  <si>
     <t>Dreamer</t>
   </si>
   <si>
     <t>Moving Foward (Aiobahn Remix)</t>
   </si>
   <si>
-    <t>Midnight Runners</t>
-  </si>
-  <si>
     <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
@@ -429,6 +447,9 @@
     <t>So Sexy</t>
   </si>
   <si>
+    <t>In Heaven</t>
+  </si>
+  <si>
     <t>Eternally</t>
   </si>
   <si>
@@ -456,12 +477,12 @@
     <t>Without You</t>
   </si>
   <si>
+    <t>Falling</t>
+  </si>
+  <si>
     <t>Any Other Way</t>
   </si>
   <si>
-    <t>Falling</t>
-  </si>
-  <si>
     <t>Positive Reaction</t>
   </si>
   <si>
@@ -489,12 +510,12 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
-    <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -510,12 +531,12 @@
     <t>BreadnButter, Trap City</t>
   </si>
   <si>
+    <t>Found Frequencies, Armada Music</t>
+  </si>
+  <si>
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>Found Frequencies, Armada Music</t>
-  </si>
-  <si>
     <t>Liquicity</t>
   </si>
   <si>
@@ -528,6 +549,9 @@
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
+    <t>Protocol Recordings</t>
+  </si>
+  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
@@ -543,12 +567,12 @@
     <t>Future House Cloud</t>
   </si>
   <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
     <t>Lost World</t>
   </si>
   <si>
-    <t>Elevate Records, SHOGUN</t>
-  </si>
-  <si>
     <t>Galacy, Liquicity</t>
   </si>
   <si>
@@ -588,6 +612,12 @@
     <t>deadmau5</t>
   </si>
   <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
+    <t>Blasterjaxx</t>
+  </si>
+  <si>
     <t>Daft Punk</t>
   </si>
   <si>
@@ -627,18 +657,18 @@
     <t>Oliverse</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Lost Frequencies</t>
+  </si>
+  <si>
+    <t>Mathieu Koss</t>
+  </si>
+  <si>
     <t>Nino Lucarelli</t>
   </si>
   <si>
-    <t>Brooks</t>
-  </si>
-  <si>
-    <t>Lost Frequencies</t>
-  </si>
-  <si>
-    <t>Mathieu Koss</t>
-  </si>
-  <si>
     <t>Centineo</t>
   </si>
   <si>
@@ -657,12 +687,6 @@
     <t>Diandra Faye</t>
   </si>
   <si>
-    <t>Dr Phunk</t>
-  </si>
-  <si>
-    <t>Blasterjaxx</t>
-  </si>
-  <si>
     <t>Hardwell</t>
   </si>
   <si>
@@ -702,6 +726,15 @@
     <t>Sebastian Mateo</t>
   </si>
   <si>
+    <t>Charlie Ray</t>
+  </si>
+  <si>
+    <t>Jordan Grace</t>
+  </si>
+  <si>
+    <t>Trilane</t>
+  </si>
+  <si>
     <t>Dame1</t>
   </si>
   <si>
@@ -720,6 +753,15 @@
     <t>Showmain</t>
   </si>
   <si>
+    <t>Kamix</t>
+  </si>
+  <si>
+    <t>PJONAX</t>
+  </si>
+  <si>
+    <t>WYKO</t>
+  </si>
+  <si>
     <t>Anna Vellington</t>
   </si>
   <si>
@@ -756,10 +798,10 @@
     <t>Found Frequencies</t>
   </si>
   <si>
+    <t>Revealed Radar</t>
+  </si>
+  <si>
     <t>FHC Selection</t>
-  </si>
-  <si>
-    <t>Revealed Radar</t>
   </si>
   <si>
     <t>Dim Mak</t>
@@ -1138,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1163,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1177,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1191,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D4">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1208,10 +1250,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D5">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1219,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>936064</v>
+        <v>955772</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1233,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D7">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1247,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D8">
-        <v>818990</v>
+        <v>830608</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1261,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>797062</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1275,13 +1317,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>673909</v>
+        <v>695603</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1289,13 +1331,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D11">
-        <v>385867</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1303,13 +1345,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D12">
-        <v>365179</v>
+        <v>416185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1317,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D13">
-        <v>318074</v>
+        <v>364686</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1331,13 +1373,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1345,13 +1387,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D15">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1359,13 +1401,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>218096</v>
+        <v>227242</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1373,13 +1415,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D17">
-        <v>176822</v>
+        <v>187158</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1387,13 +1429,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D18">
-        <v>140727</v>
+        <v>164407</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1401,13 +1443,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D19">
-        <v>133527</v>
+        <v>150182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1415,13 +1457,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D20">
-        <v>124757</v>
+        <v>149323</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1429,13 +1471,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D21">
-        <v>124436</v>
+        <v>133190</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1443,13 +1485,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22">
-        <v>124224</v>
+        <v>129542</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1457,13 +1499,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D23">
-        <v>115103</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1471,13 +1513,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D24">
-        <v>110071</v>
+        <v>119609</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1485,13 +1527,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D25">
-        <v>107988</v>
+        <v>117028</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1499,13 +1541,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D26">
-        <v>107203</v>
+        <v>116440</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1513,41 +1555,41 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D27">
-        <v>101024</v>
+        <v>114821</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28">
-        <v>91603</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D29">
-        <v>89968</v>
+        <v>97959</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1555,13 +1597,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D30">
-        <v>87524</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1569,13 +1611,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>79132</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1583,13 +1625,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D32">
-        <v>77822</v>
+        <v>87606</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1597,13 +1639,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>68416</v>
+        <v>81963</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1611,13 +1653,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D34">
-        <v>65741</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1625,13 +1667,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D35">
-        <v>63380</v>
+        <v>77004</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1639,13 +1681,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D36">
-        <v>62015</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1653,13 +1695,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D37">
-        <v>59890</v>
+        <v>71826</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1667,13 +1709,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D38">
-        <v>59792</v>
+        <v>66907</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1681,41 +1723,41 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D39">
-        <v>59653</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40">
-        <v>50768</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>164</v>
       </c>
       <c r="D41">
-        <v>49652</v>
+        <v>55126</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1723,13 +1765,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D42">
-        <v>48234</v>
+        <v>53132</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1737,13 +1779,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D43">
-        <v>45522</v>
+        <v>52535</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1751,13 +1793,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D44">
-        <v>44523</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1765,13 +1807,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D45">
-        <v>41511</v>
+        <v>50767</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1779,13 +1821,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46">
-        <v>38208</v>
+        <v>47650</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1793,13 +1835,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47">
-        <v>33137</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1807,13 +1849,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D48">
-        <v>30491</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1821,13 +1863,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D49">
-        <v>30074</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1835,13 +1877,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50">
-        <v>29107</v>
+        <v>31435</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1849,13 +1891,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D51">
-        <v>28682</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1863,13 +1905,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D52">
-        <v>22734</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1877,13 +1919,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D53">
-        <v>22053</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1891,55 +1933,55 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54">
-        <v>21522</v>
+        <v>25247</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D55">
-        <v>20748</v>
+        <v>23815</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D56">
-        <v>18848</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="D57">
-        <v>17297</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1947,55 +1989,55 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D58">
-        <v>13010</v>
+        <v>21714</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D59">
-        <v>11354</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D60">
-        <v>10947</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D61">
-        <v>8549</v>
+        <v>12860</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2003,13 +2045,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D62">
-        <v>7753</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2017,13 +2059,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D63">
-        <v>6358</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2031,13 +2073,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D64">
-        <v>5923</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2045,13 +2087,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D65">
-        <v>4861</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2059,13 +2101,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D66">
-        <v>4747</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2073,13 +2115,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D67">
-        <v>4140</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2087,13 +2129,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D68">
-        <v>4007</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2101,13 +2143,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D69">
-        <v>4003</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2115,13 +2157,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D70">
-        <v>3693</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2129,13 +2171,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D71">
-        <v>2448</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2143,13 +2185,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D72">
-        <v>1876</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2157,13 +2199,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D73">
-        <v>1767</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2171,13 +2213,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74">
-        <v>1080</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2185,13 +2227,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D75">
-        <v>186</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2199,12 +2241,68 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D76">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2232,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2243,47 +2341,47 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2291,104 +2389,104 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2396,16 +2494,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2413,149 +2511,149 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D18">
         <v>32</v>
       </c>
       <c r="E18">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D19">
         <v>32</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -2563,138 +2661,138 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2702,10 +2800,10 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -2719,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -2736,10 +2834,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -2750,13 +2848,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -2767,305 +2865,305 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
         <v>172</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3073,84 +3171,84 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3158,98 +3256,98 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3260,13 +3358,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3277,13 +3375,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3294,13 +3392,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3311,13 +3409,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3328,13 +3426,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3345,13 +3443,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3362,13 +3460,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3379,13 +3477,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3396,13 +3494,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3413,13 +3511,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3430,13 +3528,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3447,13 +3545,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3464,13 +3562,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3481,13 +3579,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3498,18 +3596,86 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3537,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3545,13 +3711,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3559,69 +3725,69 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>138148</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D4">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D6">
-        <v>84178</v>
+        <v>89181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3629,265 +3795,265 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D8">
-        <v>66583</v>
+        <v>69549</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D9">
-        <v>59009</v>
+        <v>62367</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D10">
-        <v>58202</v>
+        <v>61960</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D11">
-        <v>51946</v>
+        <v>55545</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D12">
-        <v>45584</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D13">
-        <v>44765</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D14">
-        <v>44233</v>
+        <v>47745</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D15">
-        <v>42338</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D16">
-        <v>42313</v>
+        <v>46093</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D17">
-        <v>39031</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D18">
-        <v>33883</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19">
-        <v>33634</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D20">
-        <v>33472</v>
+        <v>29971</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="D21">
-        <v>28389</v>
+        <v>29142</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D22">
-        <v>26999</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D23">
-        <v>22649</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D24">
-        <v>21874</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D25">
-        <v>21409</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D26">
-        <v>21192</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3895,55 +4061,55 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D27">
-        <v>20019</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D28">
-        <v>19051</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D29">
-        <v>17680</v>
+        <v>18836</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D30">
-        <v>16254</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3951,167 +4117,167 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D31">
-        <v>16246</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D32">
-        <v>16165</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D33">
-        <v>16128</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D34">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35">
-        <v>15222</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D36">
-        <v>14908</v>
+        <v>14922</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D37">
-        <v>14089</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D38">
-        <v>13100</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D39">
-        <v>12437</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D40">
-        <v>12187</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D41">
-        <v>10989</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D42">
-        <v>10335</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4119,223 +4285,223 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>10032</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D44">
-        <v>9391</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D45">
-        <v>9013</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D46">
-        <v>8297</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D47">
-        <v>7750</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D48">
-        <v>7591</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D49">
-        <v>6876</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50">
-        <v>6627</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D51">
-        <v>6334</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D52">
-        <v>5992</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D53">
-        <v>5765</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D54">
-        <v>5658</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D55">
-        <v>4933</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D56">
-        <v>4045</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57">
-        <v>2636</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D58">
-        <v>2459</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4343,178 +4509,178 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D59">
-        <v>2086</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D60">
-        <v>2014</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D61">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D62">
-        <v>1910</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D63">
-        <v>1457</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D64">
-        <v>1419</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D65">
-        <v>1274</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D66">
-        <v>971</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D67">
-        <v>459</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4522,13 +4688,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4536,13 +4702,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4550,13 +4716,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4564,13 +4730,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4578,15 +4744,71 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
     </row>
@@ -4597,7 +4819,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4613,18 +4835,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B2">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B3">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4632,7 +4854,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4640,23 +4862,23 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B6">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B7">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4664,47 +4886,47 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>936064</v>
+        <v>955772</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B9">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B10">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>818990</v>
+        <v>830608</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B12">
-        <v>818990</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="B13">
-        <v>797062</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4712,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>673909</v>
+        <v>695603</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4720,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>385867</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4728,7 +4950,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>365179</v>
+        <v>416185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4736,7 +4958,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>318074</v>
+        <v>364686</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4744,7 +4966,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4752,15 +4974,15 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>252442</v>
+        <v>269525</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4768,63 +4990,63 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>218096</v>
+        <v>227242</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="B22">
-        <v>176822</v>
+        <v>204422</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="B23">
-        <v>164018</v>
+        <v>198571</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>140727</v>
+        <v>187158</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>133527</v>
+        <v>180758</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>124757</v>
+        <v>150182</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B27">
-        <v>124436</v>
+        <v>149323</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>124436</v>
+        <v>133190</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4832,39 +5054,39 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>124224</v>
+        <v>129542</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B30">
-        <v>115103</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B31">
-        <v>107988</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>107988</v>
+        <v>119609</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>107203</v>
+        <v>117028</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4872,487 +5094,487 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>101024</v>
+        <v>114821</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B35">
-        <v>89968</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B36">
-        <v>89968</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B37">
-        <v>87524</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B38">
-        <v>87524</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="B39">
-        <v>87524</v>
+        <v>93540</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="B40">
-        <v>81426</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="B41">
-        <v>79132</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="B42">
-        <v>77822</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="B43">
-        <v>77624</v>
+        <v>87606</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B44">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B45">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B46">
-        <v>68416</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="B47">
-        <v>65741</v>
+        <v>81963</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>65741</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="B49">
-        <v>65741</v>
+        <v>77004</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="B50">
-        <v>63380</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B51">
-        <v>62015</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B52">
-        <v>62015</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B53">
-        <v>59890</v>
+        <v>71826</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>59890</v>
+        <v>66907</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="B55">
-        <v>59792</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="B56">
-        <v>59653</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="B57">
-        <v>51419</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B58">
-        <v>49652</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>48234</v>
+        <v>54345</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60">
-        <v>44523</v>
+        <v>53132</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61">
-        <v>41511</v>
+        <v>52535</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B62">
-        <v>38208</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>38208</v>
+        <v>47650</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="B64">
-        <v>33137</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B65">
-        <v>33137</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B66">
-        <v>33137</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="B67">
-        <v>30074</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68">
-        <v>29107</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B69">
-        <v>28682</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70">
-        <v>22734</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B71">
-        <v>22053</v>
+        <v>25247</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="B72">
-        <v>21522</v>
+        <v>23815</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B73">
-        <v>21522</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B74">
-        <v>18848</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B75">
-        <v>18848</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B76">
-        <v>17297</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B77">
-        <v>17297</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B78">
-        <v>10947</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B79">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B80">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="B81">
-        <v>8549</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="B82">
-        <v>7753</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B83">
-        <v>7753</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="B84">
-        <v>6358</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="B85">
-        <v>5923</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B86">
-        <v>4861</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B87">
-        <v>4861</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="B88">
-        <v>4747</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="B89">
-        <v>4747</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="B90">
-        <v>4140</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="B91">
-        <v>4007</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="B92">
-        <v>4003</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B93">
-        <v>3693</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="B94">
-        <v>3693</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5360,54 +5582,110 @@
         <v>69</v>
       </c>
       <c r="B95">
-        <v>2448</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="B96">
-        <v>1876</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B97">
-        <v>1876</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="B98">
-        <v>1080</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="B99">
-        <v>186</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B101">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108">
         <v>0</v>
       </c>
     </row>
@@ -5418,7 +5696,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5429,62 +5707,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -5492,194 +5770,194 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B12">
         <v>58</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B13">
         <v>58</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -5690,65 +5968,65 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="B27">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B28">
         <v>32</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>32</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>33</v>
@@ -5756,29 +6034,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -5789,106 +6067,106 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B37">
         <v>25</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -5899,29 +6177,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>16</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -5932,274 +6210,274 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -6207,150 +6485,150 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -6361,7 +6639,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -6372,7 +6650,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6383,7 +6661,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -6394,7 +6672,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6405,7 +6683,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6416,7 +6694,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6427,7 +6705,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6438,7 +6716,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6449,7 +6727,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6460,7 +6738,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -6471,7 +6749,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -6482,7 +6760,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6493,7 +6771,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -6504,7 +6782,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -6515,7 +6793,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -6526,12 +6804,89 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
         <v>0</v>
       </c>
     </row>
@@ -6542,7 +6897,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6553,23 +6908,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B2">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B3">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6577,87 +6932,87 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>138148</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B5">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B6">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B7">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B8">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B9">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B10">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B11">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>84178</v>
+        <v>89181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B13">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B14">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6665,31 +7020,31 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>66583</v>
+        <v>69549</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>59009</v>
+        <v>62367</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>58202</v>
+        <v>61960</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B18">
-        <v>45584</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6697,135 +7052,135 @@
         <v>193</v>
       </c>
       <c r="B19">
-        <v>44233</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>44233</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="B21">
-        <v>42338</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B22">
-        <v>42313</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>42313</v>
+        <v>46093</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>39031</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>33883</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B26">
-        <v>33883</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B27">
-        <v>33634</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>33472</v>
+        <v>29971</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="B29">
-        <v>28389</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B30">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B31">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="B32">
-        <v>22649</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>21874</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>21409</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>21192</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6833,183 +7188,183 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>20019</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>19051</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="B38">
-        <v>17680</v>
+        <v>20054</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>16254</v>
+        <v>18836</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B40">
-        <v>16254</v>
+        <v>18262</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>16246</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>16165</v>
+        <v>17411</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>16128</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B44">
-        <v>15567</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B45">
-        <v>15567</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>15222</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="B47">
-        <v>14908</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="B48">
-        <v>14097</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>14089</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B50">
-        <v>13100</v>
+        <v>14922</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>12437</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>12437</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="B53">
-        <v>12274</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B54">
-        <v>12187</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>10989</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="B56">
-        <v>10335</v>
+        <v>13253</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="B57">
-        <v>10032</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B58">
-        <v>9391</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7017,316 +7372,316 @@
         <v>219</v>
       </c>
       <c r="B59">
-        <v>9013</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>9013</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>8297</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B62">
-        <v>8297</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>7750</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>7591</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B65">
-        <v>6876</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B66">
-        <v>6627</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B67">
-        <v>6627</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B68">
-        <v>6627</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B69">
-        <v>6334</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="B70">
-        <v>6334</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B71">
-        <v>5992</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B72">
-        <v>5992</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>5765</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="B74">
-        <v>5658</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="B75">
-        <v>4933</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B76">
-        <v>4045</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B77">
-        <v>4045</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B78">
-        <v>4045</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B79">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B80">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B81">
-        <v>2459</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B82">
-        <v>2459</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B83">
-        <v>2086</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B84">
-        <v>2014</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B85">
-        <v>2014</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="B86">
-        <v>1457</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="B87">
-        <v>1457</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="B88">
-        <v>1419</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="B89">
-        <v>1274</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B90">
-        <v>971</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B91">
-        <v>459</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B92">
-        <v>459</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -7334,7 +7689,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7342,7 +7697,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7350,9 +7705,65 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108">
         <v>0</v>
       </c>
     </row>
@@ -7363,7 +7774,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7379,265 +7790,273 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B2">
-        <v>6196972</v>
+        <v>6888154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>3804650</v>
+        <v>3953190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="B5">
-        <v>1281054</v>
+        <v>1409727</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="B6">
-        <v>1228989</v>
+        <v>1370397</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B7">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B8">
-        <v>1049403</v>
+        <v>1094701</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B9">
-        <v>818990</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B10">
-        <v>365179</v>
+        <v>637523</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B11">
-        <v>365179</v>
+        <v>637523</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B13">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B14">
-        <v>195441</v>
+        <v>214433</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B15">
-        <v>169834</v>
+        <v>179542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="B16">
-        <v>77822</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B17">
-        <v>77822</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="B18">
-        <v>77624</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B19">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B20">
-        <v>50732</v>
+        <v>53227</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B21">
-        <v>22201</v>
+        <v>22937</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B22">
-        <v>10365</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B23">
-        <v>10201</v>
+        <v>10646</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B24">
-        <v>8549</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="B25">
-        <v>5923</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B26">
-        <v>5923</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B27">
-        <v>4861</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B28">
-        <v>4747</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B29">
-        <v>1876</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B30">
-        <v>1767</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B31">
-        <v>1767</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="B32">
-        <v>1080</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -7648,7 +8067,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7659,81 +8078,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B2">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C2">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C3">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -7744,18 +8163,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B10">
         <v>33</v>
@@ -7766,95 +8185,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -7865,46 +8284,46 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7912,37 +8331,37 @@
         <v>171</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7953,7 +8372,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7964,7 +8383,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7975,7 +8394,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7986,7 +8405,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7997,7 +8416,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8008,7 +8427,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8019,12 +8438,23 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -8035,7 +8465,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8046,270 +8476,278 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B2">
-        <v>463464</v>
+        <v>518419</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>406018</v>
+        <v>440645</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>157565</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B5">
-        <v>138148</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B6">
-        <v>123710</v>
+        <v>131142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B7">
-        <v>103145</v>
+        <v>112104</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B9">
-        <v>58368</v>
+        <v>65166</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B10">
-        <v>45584</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B11">
-        <v>45584</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>33634</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="B13">
-        <v>21409</v>
+        <v>33520</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B14">
-        <v>21192</v>
+        <v>33520</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="B15">
-        <v>21192</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B16">
-        <v>19423</v>
+        <v>20231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B17">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B18">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B19">
-        <v>15268</v>
+        <v>15897</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B20">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B21">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B22">
-        <v>10989</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B23">
-        <v>10989</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B24">
-        <v>9048</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B25">
-        <v>8209</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B26">
-        <v>6876</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B27">
-        <v>6334</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B28">
-        <v>4933</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B29">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B30">
-        <v>2245</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B31">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B32">
-        <v>1939</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B33">
-        <v>459</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="B34">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35">
         <v>0</v>
       </c>
     </row>

--- a/files/2021 Charts OUT All Time.xlsx
+++ b/files/2021 Charts OUT All Time.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="253">
   <si>
     <t>Artist</t>
   </si>
@@ -54,21 +54,21 @@
     <t>Tom Wilson, M.I.M.E</t>
   </si>
   <si>
+    <t>deadmau5, Wolfgang Gartner</t>
+  </si>
+  <si>
     <t>hayve</t>
   </si>
   <si>
-    <t>deadmau5, Wolfgang Gartner</t>
-  </si>
-  <si>
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>KEVU</t>
   </si>
   <si>
-    <t>Kaskade</t>
-  </si>
-  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
@@ -84,81 +84,75 @@
     <t>Saint Punk</t>
   </si>
   <si>
-    <t>Blasterjaxx, Dr Phunk</t>
-  </si>
-  <si>
     <t>WbToys</t>
   </si>
   <si>
     <t>Daft Punk, RetroVision</t>
   </si>
   <si>
+    <t>Julian Jordan</t>
+  </si>
+  <si>
+    <t>TYNAN, Ace Aura</t>
+  </si>
+  <si>
     <t>Feint</t>
   </si>
   <si>
-    <t>Julian Jordan</t>
-  </si>
-  <si>
-    <t>TYNAN, Ace Aura</t>
-  </si>
-  <si>
     <t>Camellia</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>Bleu Clair, OOTORO</t>
+  </si>
+  <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
     <t>Bad Computer</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
-    <t>Bleu Clair, OOTORO</t>
-  </si>
-  <si>
     <t>The Bloody Beetroots, Teddy Killerz</t>
   </si>
   <si>
     <t>Seth Hills, Vluarr, Lucas Ariel</t>
   </si>
   <si>
+    <t>DubVision</t>
+  </si>
+  <si>
+    <t>Misfit</t>
+  </si>
+  <si>
+    <t>KAAZE, Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
+  </si>
+  <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
+    <t>Centineo, Niles Mason</t>
+  </si>
+  <si>
+    <t>Matt Nash, Lucas Marx</t>
+  </si>
+  <si>
     <t>Koven</t>
   </si>
   <si>
-    <t>DubVision</t>
-  </si>
-  <si>
-    <t>Misfit</t>
-  </si>
-  <si>
     <t>Ellis</t>
   </si>
   <si>
-    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
-  </si>
-  <si>
-    <t>KAAZE, Nino Lucarelli</t>
-  </si>
-  <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
-    <t>Centineo, Niles Mason</t>
-  </si>
-  <si>
-    <t>Matt Nash, Lucas Marx</t>
+    <t>Polygon, Martin Jasper</t>
   </si>
   <si>
     <t>Malarkey</t>
   </si>
   <si>
-    <t>Masayoshi Iimori</t>
-  </si>
-  <si>
-    <t>Polygon, Martin Jasper</t>
-  </si>
-  <si>
     <t>Chime, Franky Nuts, Oliverse</t>
   </si>
   <si>
@@ -180,30 +174,30 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>Maurice Lessing</t>
+  </si>
+  <si>
     <t>Body Ocean</t>
   </si>
   <si>
-    <t>Maurice Lessing</t>
+    <t>THYKIER</t>
   </si>
   <si>
     <t>SWACQ</t>
   </si>
   <si>
-    <t>THYKIER</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
+    <t>Sagan, Heyem &amp; Groozin</t>
+  </si>
+  <si>
+    <t>Julian Calor, Aiobahn</t>
+  </si>
+  <si>
     <t>KAAZE</t>
   </si>
   <si>
-    <t>Sagan, Heyem &amp; Groozin</t>
-  </si>
-  <si>
-    <t>Julian Calor, Aiobahn</t>
-  </si>
-  <si>
     <t>MR.BLACK, Offer Nissim, Chester Young</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
-    <t>Trilane, Charlie Ray, Jordan Grace</t>
-  </si>
-  <si>
     <t>D3EPANK</t>
   </si>
   <si>
@@ -240,18 +231,15 @@
     <t>Showmain, 7en</t>
   </si>
   <si>
-    <t>Kamix, WYKO, PJONAX</t>
-  </si>
-  <si>
     <t>Deekey</t>
   </si>
   <si>
+    <t>Lost Identities, Anna Vellington</t>
+  </si>
+  <si>
     <t>Polygon</t>
   </si>
   <si>
-    <t>Lost Identities, Anna Vellington</t>
-  </si>
-  <si>
     <t>Rezilient</t>
   </si>
   <si>
@@ -276,21 +264,21 @@
     <t>Run For Your Life</t>
   </si>
   <si>
+    <t>Channel 43</t>
+  </si>
+  <si>
     <t>Red Light</t>
   </si>
   <si>
-    <t>Channel 43</t>
-  </si>
-  <si>
     <t>Into The Unknown</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Melody</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
     <t>Wraith</t>
   </si>
   <si>
@@ -306,39 +294,36 @@
     <t>Empty Bed</t>
   </si>
   <si>
-    <t>Here Without You</t>
-  </si>
-  <si>
     <t>Let Me Love You</t>
   </si>
   <si>
     <t>Harder, Better, Faster, Stronger (RetroVision Remix)</t>
   </si>
   <si>
+    <t>Big Bad Bass</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
     <t>Do Better</t>
   </si>
   <si>
-    <t>Big Bad Bass</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
     <t>PURE SILVER</t>
   </si>
   <si>
+    <t>Bonetrousle</t>
+  </si>
+  <si>
+    <t>Beat Like This</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
     <t>Destroy Me</t>
   </si>
   <si>
-    <t>Bonetrousle</t>
-  </si>
-  <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t>Beat Like This</t>
-  </si>
-  <si>
     <t>Kass' Theme - Jazz Accordion Arrangement</t>
   </si>
   <si>
@@ -348,45 +333,42 @@
     <t>Calling Out</t>
   </si>
   <si>
+    <t>Deeper</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Don't Leave Me Now (Brooks Remix)</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Fearless</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
     <t>Light Up</t>
   </si>
   <si>
-    <t>Deeper</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
     <t>Orbit</t>
   </si>
   <si>
-    <t>Don't Leave Me Now (Brooks Remix)</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
-    <t>Fearless</t>
-  </si>
-  <si>
-    <t>Midnight</t>
-  </si>
-  <si>
     <t>Golden Battle</t>
   </si>
   <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
-    <t>In My Soul</t>
-  </si>
-  <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
     <t>Let Me Go</t>
   </si>
   <si>
@@ -408,33 +390,33 @@
     <t>Nighttime</t>
   </si>
   <si>
+    <t>Never Let You Go</t>
+  </si>
+  <si>
     <t>Once The Music</t>
   </si>
   <si>
-    <t>Never Let You Go</t>
+    <t>Miss</t>
   </si>
   <si>
     <t>Purification</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
     <t>Wanna Love</t>
   </si>
   <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
+    <t>Moving Foward (Aiobahn Remix)</t>
+  </si>
+  <si>
     <t>Midnight Runners</t>
   </si>
   <si>
-    <t>Dreamer</t>
-  </si>
-  <si>
-    <t>Moving Foward (Aiobahn Remix)</t>
-  </si>
-  <si>
     <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
@@ -447,9 +429,6 @@
     <t>So Sexy</t>
   </si>
   <si>
-    <t>In Heaven</t>
-  </si>
-  <si>
     <t>Eternally</t>
   </si>
   <si>
@@ -477,12 +456,12 @@
     <t>Without You</t>
   </si>
   <si>
+    <t>Any Other Way</t>
+  </si>
+  <si>
     <t>Falling</t>
   </si>
   <si>
-    <t>Any Other Way</t>
-  </si>
-  <si>
     <t>Positive Reaction</t>
   </si>
   <si>
@@ -510,12 +489,12 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>Maxximize Records, Spinnin' Records</t>
   </si>
   <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -531,12 +510,12 @@
     <t>BreadnButter, Trap City</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>Found Frequencies, Armada Music</t>
   </si>
   <si>
-    <t>Revealed Music</t>
-  </si>
-  <si>
     <t>Liquicity</t>
   </si>
   <si>
@@ -549,9 +528,6 @@
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
-    <t>Protocol Recordings</t>
-  </si>
-  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
@@ -567,12 +543,12 @@
     <t>Future House Cloud</t>
   </si>
   <si>
+    <t>Lost World</t>
+  </si>
+  <si>
     <t>Elevate Records, SHOGUN</t>
   </si>
   <si>
-    <t>Lost World</t>
-  </si>
-  <si>
     <t>Galacy, Liquicity</t>
   </si>
   <si>
@@ -612,81 +588,81 @@
     <t>deadmau5</t>
   </si>
   <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Ace Aura</t>
+  </si>
+  <si>
+    <t>TYNAN</t>
+  </si>
+  <si>
+    <t>Bleu Clair</t>
+  </si>
+  <si>
+    <t>OOTORO</t>
+  </si>
+  <si>
+    <t>Teddy Killerz</t>
+  </si>
+  <si>
+    <t>The Bloody Beetroots</t>
+  </si>
+  <si>
+    <t>Lucas Ariel</t>
+  </si>
+  <si>
+    <t>Seth Hills</t>
+  </si>
+  <si>
+    <t>Vluarr</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Franky Nuts</t>
+  </si>
+  <si>
+    <t>Oliverse</t>
+  </si>
+  <si>
+    <t>Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Lost Frequencies</t>
+  </si>
+  <si>
+    <t>Mathieu Koss</t>
+  </si>
+  <si>
+    <t>Centineo</t>
+  </si>
+  <si>
+    <t>Niles Mason</t>
+  </si>
+  <si>
+    <t>Lucas Marx</t>
+  </si>
+  <si>
+    <t>Matt Nash</t>
+  </si>
+  <si>
+    <t>Martin Jasper</t>
+  </si>
+  <si>
+    <t>Diandra Faye</t>
+  </si>
+  <si>
     <t>Dr Phunk</t>
   </si>
   <si>
     <t>Blasterjaxx</t>
   </si>
   <si>
-    <t>Daft Punk</t>
-  </si>
-  <si>
-    <t>Ace Aura</t>
-  </si>
-  <si>
-    <t>TYNAN</t>
-  </si>
-  <si>
-    <t>Bleu Clair</t>
-  </si>
-  <si>
-    <t>OOTORO</t>
-  </si>
-  <si>
-    <t>Teddy Killerz</t>
-  </si>
-  <si>
-    <t>The Bloody Beetroots</t>
-  </si>
-  <si>
-    <t>Lucas Ariel</t>
-  </si>
-  <si>
-    <t>Seth Hills</t>
-  </si>
-  <si>
-    <t>Vluarr</t>
-  </si>
-  <si>
-    <t>Chime</t>
-  </si>
-  <si>
-    <t>Franky Nuts</t>
-  </si>
-  <si>
-    <t>Oliverse</t>
-  </si>
-  <si>
-    <t>Brooks</t>
-  </si>
-  <si>
-    <t>Lost Frequencies</t>
-  </si>
-  <si>
-    <t>Mathieu Koss</t>
-  </si>
-  <si>
-    <t>Nino Lucarelli</t>
-  </si>
-  <si>
-    <t>Centineo</t>
-  </si>
-  <si>
-    <t>Niles Mason</t>
-  </si>
-  <si>
-    <t>Lucas Marx</t>
-  </si>
-  <si>
-    <t>Matt Nash</t>
-  </si>
-  <si>
-    <t>Martin Jasper</t>
-  </si>
-  <si>
-    <t>Diandra Faye</t>
-  </si>
-  <si>
     <t>Hardwell</t>
   </si>
   <si>
@@ -726,15 +702,6 @@
     <t>Sebastian Mateo</t>
   </si>
   <si>
-    <t>Charlie Ray</t>
-  </si>
-  <si>
-    <t>Jordan Grace</t>
-  </si>
-  <si>
-    <t>Trilane</t>
-  </si>
-  <si>
     <t>Dame1</t>
   </si>
   <si>
@@ -753,15 +720,6 @@
     <t>Showmain</t>
   </si>
   <si>
-    <t>Kamix</t>
-  </si>
-  <si>
-    <t>PJONAX</t>
-  </si>
-  <si>
-    <t>WYKO</t>
-  </si>
-  <si>
     <t>Anna Vellington</t>
   </si>
   <si>
@@ -798,10 +756,10 @@
     <t>Found Frequencies</t>
   </si>
   <si>
+    <t>FHC Selection</t>
+  </si>
+  <si>
     <t>Revealed Radar</t>
-  </si>
-  <si>
-    <t>FHC Selection</t>
   </si>
   <si>
     <t>Dim Mak</t>
@@ -1180,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1205,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1219,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1233,13 +1191,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D4">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1250,10 +1208,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1261,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>955772</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1275,13 +1233,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1289,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D8">
-        <v>830608</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1303,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D9">
-        <v>830548</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1317,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>695603</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1331,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D11">
-        <v>473116</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1345,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D12">
-        <v>416185</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1359,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D13">
-        <v>364686</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1373,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D14">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1387,13 +1345,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D15">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1401,13 +1359,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>227242</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1415,13 +1373,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>187158</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1429,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18">
-        <v>164407</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1443,13 +1401,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D19">
-        <v>150182</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1457,13 +1415,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>149323</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1471,13 +1429,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>133190</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1485,13 +1443,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>129542</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1499,13 +1457,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D23">
-        <v>129229</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1513,13 +1471,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D24">
-        <v>119609</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1527,13 +1485,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D25">
-        <v>117028</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1541,13 +1499,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D26">
-        <v>116440</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1555,41 +1513,41 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>114821</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D28">
-        <v>113501</v>
+        <v>91603</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D29">
-        <v>97959</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1597,13 +1555,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D30">
-        <v>94971</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1611,13 +1569,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31">
-        <v>93396</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1625,13 +1583,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32">
-        <v>87606</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1639,13 +1597,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D33">
-        <v>81963</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1653,13 +1611,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D34">
-        <v>78952</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1667,13 +1625,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D35">
-        <v>77004</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1681,13 +1639,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D36">
-        <v>73787</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1695,13 +1653,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D37">
-        <v>71826</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1709,13 +1667,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>66907</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1723,41 +1681,41 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D39">
-        <v>66444</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>61794</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>164</v>
       </c>
       <c r="D41">
-        <v>55126</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1765,13 +1723,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D42">
-        <v>53132</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1779,13 +1737,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D43">
-        <v>52535</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1793,13 +1751,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D44">
-        <v>52061</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1807,13 +1765,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D45">
-        <v>50767</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1821,13 +1779,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46">
-        <v>47650</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1835,13 +1793,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47">
-        <v>42427</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1849,13 +1807,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D48">
-        <v>40015</v>
+        <v>30491</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1863,13 +1821,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D49">
-        <v>34164</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1877,13 +1835,13 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50">
-        <v>31435</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1891,13 +1849,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D51">
-        <v>31171</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1905,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D52">
-        <v>30210</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1919,13 +1877,13 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D53">
-        <v>29360</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1933,55 +1891,55 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54">
-        <v>25247</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D55">
-        <v>23815</v>
+        <v>20748</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D56">
-        <v>22164</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D57">
-        <v>22014</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1989,55 +1947,55 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D58">
-        <v>21714</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D59">
-        <v>19665</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D60">
-        <v>17511</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D61">
-        <v>12860</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2045,13 +2003,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62">
-        <v>11191</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2059,13 +2017,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D63">
-        <v>8751</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2073,13 +2031,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D64">
-        <v>7950</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2087,13 +2045,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D65">
-        <v>7277</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2101,13 +2059,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D66">
-        <v>6530</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2115,13 +2073,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D67">
-        <v>6045</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2129,13 +2087,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D68">
-        <v>5425</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2143,13 +2101,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D69">
-        <v>5102</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2157,13 +2115,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D70">
-        <v>4216</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2171,13 +2129,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D71">
-        <v>4116</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2185,13 +2143,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D72">
-        <v>4094</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2199,13 +2157,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D73">
-        <v>3981</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2213,13 +2171,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74">
-        <v>2871</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2227,13 +2185,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D75">
-        <v>2538</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2241,68 +2199,12 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D76">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80">
         <v>0</v>
       </c>
     </row>
@@ -2313,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2330,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2341,47 +2243,47 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2389,104 +2291,104 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2494,16 +2396,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2511,149 +2413,149 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18">
         <v>32</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D19">
         <v>32</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -2661,138 +2563,138 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2800,10 +2702,10 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -2817,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -2834,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -2848,13 +2750,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -2865,305 +2767,305 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
         <v>172</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3171,84 +3073,84 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>2</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3256,98 +3158,98 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3358,13 +3260,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3375,13 +3277,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3392,13 +3294,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3409,13 +3311,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3426,13 +3328,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3443,13 +3345,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3460,13 +3362,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3477,13 +3379,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3494,13 +3396,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3511,13 +3413,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3528,13 +3430,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3545,13 +3447,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3562,13 +3464,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3579,13 +3481,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3596,86 +3498,18 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
         <v>0</v>
       </c>
     </row>
@@ -3686,7 +3520,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3703,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3711,13 +3545,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3725,69 +3559,69 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>147082</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>89181</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3795,265 +3629,265 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>69549</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D9">
-        <v>62367</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>61960</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11">
-        <v>55545</v>
+        <v>51946</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12">
-        <v>49815</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>49556</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D14">
-        <v>47745</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D15">
-        <v>46865</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D16">
-        <v>46093</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D17">
-        <v>39642</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>36609</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19">
-        <v>35234</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>29971</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>29142</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>25106</v>
+        <v>26999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D23">
-        <v>23736</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D24">
-        <v>22750</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25">
-        <v>22157</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>21256</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4061,55 +3895,55 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>20881</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28">
-        <v>20178</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D29">
-        <v>18836</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D30">
-        <v>17686</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4117,167 +3951,167 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D31">
-        <v>17374</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>17079</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>16918</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D34">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>16197</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>14922</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>13813</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>13795</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D39">
-        <v>13578</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D40">
-        <v>13578</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D41">
-        <v>13061</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D42">
-        <v>11527</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4285,223 +4119,223 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43">
-        <v>11363</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D44">
-        <v>10788</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D45">
-        <v>10398</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D46">
-        <v>9833</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D47">
-        <v>8691</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D48">
-        <v>8528</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D49">
-        <v>8088</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50">
-        <v>7750</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D51">
-        <v>7259</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D52">
-        <v>7162</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D53">
-        <v>7056</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D54">
-        <v>6899</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D55">
-        <v>5109</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D56">
-        <v>4350</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57">
-        <v>4157</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D58">
-        <v>2993</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4509,178 +4343,178 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D59">
-        <v>2965</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D60">
-        <v>2667</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D61">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D62">
-        <v>2165</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D63">
-        <v>1502</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D64">
-        <v>1472</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D65">
-        <v>1376</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D66">
-        <v>1342</v>
+        <v>971</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67">
-        <v>1339</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D68">
-        <v>1017</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D69">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4688,13 +4522,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4702,13 +4536,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4716,13 +4550,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4730,13 +4564,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4744,71 +4578,15 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4835,18 +4613,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B3">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4854,7 +4632,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4862,23 +4640,23 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B6">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B7">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4886,47 +4664,47 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>955772</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B9">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B10">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B11">
-        <v>830608</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B12">
-        <v>830548</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>830548</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4934,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>695603</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4942,7 +4720,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>473116</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4950,7 +4728,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>416185</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4958,7 +4736,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>364686</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4966,7 +4744,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4974,15 +4752,15 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>269525</v>
+        <v>252442</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4990,63 +4768,63 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>227242</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>204422</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>198571</v>
+        <v>164018</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>187158</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="B25">
-        <v>180758</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>150182</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B27">
-        <v>149323</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="B28">
-        <v>133190</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5054,39 +4832,39 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>129542</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>129229</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B31">
-        <v>129229</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="B32">
-        <v>119609</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>117028</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5094,487 +4872,487 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>114821</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B35">
-        <v>113501</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B36">
-        <v>113501</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B37">
-        <v>94971</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B38">
-        <v>94971</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="B39">
-        <v>93540</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>93396</v>
+        <v>81426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>93396</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>93396</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B43">
-        <v>87606</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B44">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B45">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B46">
-        <v>85641</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="B47">
-        <v>81963</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="B48">
-        <v>78952</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="B49">
-        <v>77004</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>73787</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B51">
-        <v>73787</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B52">
-        <v>73787</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B53">
-        <v>71826</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="B54">
-        <v>66907</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>66444</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="B56">
-        <v>66444</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>61794</v>
+        <v>51419</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B58">
-        <v>61794</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>54345</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B60">
-        <v>53132</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B61">
-        <v>52535</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B62">
-        <v>52061</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="B63">
-        <v>47650</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="B64">
-        <v>42427</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B65">
-        <v>40015</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B66">
-        <v>34164</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>34164</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68">
-        <v>31171</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>30210</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70">
-        <v>29360</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
-        <v>25247</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="B72">
-        <v>23815</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B73">
-        <v>22164</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B74">
-        <v>22164</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B75">
-        <v>19665</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B76">
-        <v>19665</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B77">
-        <v>17511</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B78">
-        <v>17511</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B79">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B80">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>11191</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="B82">
-        <v>8751</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B83">
-        <v>7950</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>7950</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="B85">
-        <v>7277</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B86">
-        <v>7277</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B87">
-        <v>7277</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="B88">
-        <v>6530</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="B89">
-        <v>6045</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="B90">
-        <v>5425</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="B91">
-        <v>5425</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="B92">
-        <v>5102</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B93">
-        <v>5102</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="B94">
-        <v>4216</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5582,110 +5360,54 @@
         <v>69</v>
       </c>
       <c r="B95">
-        <v>4116</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="B96">
-        <v>4094</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B97">
-        <v>3981</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="B98">
-        <v>3981</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="B99">
-        <v>2871</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B100">
-        <v>2871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B101">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B103">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B104">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B106">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B108">
         <v>0</v>
       </c>
     </row>
@@ -5696,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5707,62 +5429,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -5770,194 +5492,194 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <v>58</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B13">
         <v>58</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22">
         <v>35</v>
-      </c>
-      <c r="C22">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -5968,65 +5690,65 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B28">
         <v>32</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="B29">
         <v>32</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>33</v>
@@ -6034,29 +5756,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -6067,106 +5789,106 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B37">
         <v>25</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -6177,29 +5899,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>16</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -6210,274 +5932,274 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
         <v>12</v>
-      </c>
-      <c r="C52">
-        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -6485,150 +6207,150 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
         <v>3</v>
-      </c>
-      <c r="C72">
-        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>2</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -6639,7 +6361,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -6650,7 +6372,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6661,7 +6383,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -6672,7 +6394,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6683,7 +6405,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6694,7 +6416,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6705,7 +6427,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6716,7 +6438,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6727,7 +6449,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6738,7 +6460,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -6749,7 +6471,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -6760,7 +6482,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6771,7 +6493,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -6782,7 +6504,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -6793,7 +6515,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -6804,89 +6526,12 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
         <v>0</v>
       </c>
     </row>
@@ -6897,7 +6542,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6908,23 +6553,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B3">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6932,87 +6577,87 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>147082</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B5">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B6">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B7">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B8">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B10">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>89181</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B13">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B14">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7020,31 +6665,31 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>69549</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>62367</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>61960</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>49815</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7052,135 +6697,135 @@
         <v>193</v>
       </c>
       <c r="B19">
-        <v>49815</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="B20">
-        <v>49556</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>46865</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B22">
-        <v>46865</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="B23">
-        <v>46093</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>39642</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="B25">
-        <v>36609</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B26">
-        <v>35234</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>35234</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>29971</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>25106</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B30">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B31">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B32">
-        <v>23736</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>22750</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>22157</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>21256</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7188,183 +6833,183 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>20881</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>20178</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>20054</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="B39">
-        <v>18836</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B40">
-        <v>18262</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>17686</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>17411</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>17374</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B44">
-        <v>17079</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B45">
-        <v>17079</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>16918</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>16317</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>16317</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B49">
-        <v>16197</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>14922</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="B51">
-        <v>13813</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B52">
-        <v>13795</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>13578</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B54">
-        <v>13578</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>13578</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="B56">
-        <v>13253</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>13061</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>11527</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7372,316 +7017,316 @@
         <v>219</v>
       </c>
       <c r="B59">
-        <v>10788</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="B60">
-        <v>10398</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="B61">
-        <v>9833</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B62">
-        <v>8691</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63">
-        <v>8528</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>8088</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>7750</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B66">
-        <v>7259</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B67">
-        <v>7259</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B68">
-        <v>7162</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B69">
-        <v>7162</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B70">
-        <v>7056</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B71">
-        <v>6899</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B72">
-        <v>6899</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B73">
-        <v>5109</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="B74">
-        <v>4157</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>4157</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B76">
-        <v>4157</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B77">
-        <v>2993</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B78">
-        <v>2993</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B79">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B80">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B81">
-        <v>2667</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B82">
-        <v>2667</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B83">
-        <v>2165</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B84">
-        <v>1502</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B85">
-        <v>1502</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="B86">
-        <v>1472</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="B87">
-        <v>1376</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="B88">
-        <v>1342</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="B89">
-        <v>1342</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="B90">
-        <v>1342</v>
+        <v>971</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B91">
-        <v>1339</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B92">
-        <v>1339</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="B93">
-        <v>1339</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="B94">
-        <v>1017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="B96">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -7689,7 +7334,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7697,7 +7342,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7705,65 +7350,9 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108">
         <v>0</v>
       </c>
     </row>
@@ -7774,7 +7363,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7790,273 +7379,265 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>6888154</v>
+        <v>6196972</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3">
-        <v>3953190</v>
+        <v>3804650</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="B5">
-        <v>1409727</v>
+        <v>1281054</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="B6">
-        <v>1370397</v>
+        <v>1228989</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B7">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B8">
-        <v>1094701</v>
+        <v>1049403</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B9">
-        <v>830548</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B10">
-        <v>637523</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B11">
-        <v>637523</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B12">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B13">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B14">
-        <v>214433</v>
+        <v>195441</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B15">
-        <v>179542</v>
+        <v>169834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="B16">
-        <v>85641</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B17">
-        <v>78952</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B18">
-        <v>78952</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B19">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B20">
-        <v>53227</v>
+        <v>50732</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B21">
-        <v>22937</v>
+        <v>22201</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B22">
-        <v>13359</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B23">
-        <v>10646</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B24">
-        <v>8751</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="B25">
-        <v>7277</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B26">
-        <v>6045</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="B27">
-        <v>6045</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B28">
-        <v>5425</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B29">
-        <v>5102</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B30">
-        <v>2284</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B31">
-        <v>2284</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="B32">
-        <v>2050</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B33">
-        <v>1166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -8067,7 +7648,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8078,81 +7659,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C2">
-        <v>665</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C3">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B5">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -8163,18 +7744,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B10">
         <v>33</v>
@@ -8185,95 +7766,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>12</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -8284,46 +7865,46 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8331,37 +7912,37 @@
         <v>171</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8372,7 +7953,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8383,7 +7964,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8394,7 +7975,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8405,7 +7986,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8416,7 +7997,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8427,7 +8008,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8438,23 +8019,12 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -8465,7 +8035,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8476,278 +8046,270 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B2">
-        <v>518419</v>
+        <v>463464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3">
-        <v>440645</v>
+        <v>406018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4">
-        <v>147082</v>
+        <v>157565</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B5">
-        <v>132432</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>131142</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B7">
-        <v>112104</v>
+        <v>103145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B8">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B9">
-        <v>65166</v>
+        <v>58368</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B10">
-        <v>49556</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B11">
-        <v>49556</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B12">
-        <v>36609</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="B13">
-        <v>33520</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B14">
-        <v>33520</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="B15">
-        <v>22750</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B16">
-        <v>20231</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B17">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B18">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B19">
-        <v>15897</v>
+        <v>15268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B20">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B21">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B22">
-        <v>11527</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B23">
-        <v>11527</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B24">
-        <v>10929</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B25">
-        <v>8697</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B26">
-        <v>7162</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27">
-        <v>7056</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B28">
-        <v>5109</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B29">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B30">
-        <v>2465</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B31">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B32">
-        <v>2393</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33">
-        <v>1342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B34">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35">
         <v>0</v>
       </c>
     </row>
